--- a/Ferramenta de Investimento.xlsx
+++ b/Ferramenta de Investimento.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafae\OneDrive\Área de Trabalho\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7C2DDA8-F3A5-4421-944B-0E53809A6B81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8402E8C7-2CCF-49AB-8C27-C30B305FEBE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="16440" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -154,7 +154,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="8" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
-    <numFmt numFmtId="166" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -642,29 +642,17 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -679,12 +667,6 @@
     <xf numFmtId="8" fontId="3" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -702,42 +684,6 @@
     </xf>
     <xf numFmtId="8" fontId="0" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
@@ -752,11 +698,11 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
@@ -773,8 +719,62 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="166" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -886,6 +886,116 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.5884185482322226E-2"/>
+                  <c:y val="-8.9584785508368986E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-9309-4953-9898-AEFDC3BD6D83}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.8730147454443936E-2"/>
+                  <c:y val="-9.3956370207822465E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-9309-4953-9898-AEFDC3BD6D83}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.10091086469512475"/>
+                  <c:y val="-9.832795490727593E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-9309-4953-9898-AEFDC3BD6D83}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.12367856047209813"/>
+                  <c:y val="-0.10707112430618312"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-9309-4953-9898-AEFDC3BD6D83}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.580592825083378E-2"/>
+                  <c:y val="-9.3956370207822382E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-9309-4953-9898-AEFDC3BD6D83}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -973,19 +1083,19 @@
                 <c:formatCode>"R$"#,##0.00_);[Red]\("R$"#,##0.00\)</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1225.2432283940348</c:v>
+                  <c:v>53.946929706383003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3769.961129931944</c:v>
+                  <c:v>163.33933971281826</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10947.78956385775</c:v>
+                  <c:v>460.07737891473403</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>50633.92800436863</c:v>
+                  <c:v>1978.510730774726</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>194497.63447521217</c:v>
+                  <c:v>6989.9282655370134</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1176,10 +1286,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="106"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="6"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -1237,7 +1347,9 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent4">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -1246,13 +1358,20 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-1369-4E61-9D42-F8C5F90EB845}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent4">
+                  <a:shade val="70000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -1261,13 +1380,20 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-1369-4E61-9D42-F8C5F90EB845}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent4">
+                  <a:shade val="90000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -1276,13 +1402,20 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-1369-4E61-9D42-F8C5F90EB845}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:schemeClr val="accent4">
+                  <a:tint val="90000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -1291,13 +1424,20 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-1369-4E61-9D42-F8C5F90EB845}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent5"/>
+                <a:schemeClr val="accent4">
+                  <a:tint val="70000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -1306,13 +1446,20 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-1369-4E61-9D42-F8C5F90EB845}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent6"/>
+                <a:schemeClr val="accent4">
+                  <a:tint val="50000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -1321,6 +1468,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-1369-4E61-9D42-F8C5F90EB845}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -1410,22 +1562,22 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.32</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.35</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.08</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.05</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1455,7 +1607,9 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent4">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -1464,13 +1618,20 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-1369-4E61-9D42-F8C5F90EB845}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent4">
+                  <a:shade val="70000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -1479,13 +1640,20 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-1369-4E61-9D42-F8C5F90EB845}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent4">
+                  <a:shade val="90000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -1494,13 +1662,20 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-1369-4E61-9D42-F8C5F90EB845}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:schemeClr val="accent4">
+                  <a:tint val="90000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -1509,13 +1684,20 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-1369-4E61-9D42-F8C5F90EB845}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent5"/>
+                <a:schemeClr val="accent4">
+                  <a:tint val="70000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -1524,13 +1706,20 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000015-1369-4E61-9D42-F8C5F90EB845}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent6"/>
+                <a:schemeClr val="accent4">
+                  <a:tint val="50000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -1539,6 +1728,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000017-1369-4E61-9D42-F8C5F90EB845}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -1573,22 +1767,22 @@
                 <c:formatCode>"R$"\ #,##0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1440</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1575</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>360</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>225</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>450</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>450</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1734,42 +1928,8 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="17">
   <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
 </cs:colorStyle>
 </file>
 
@@ -2862,13 +3022,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>166687</xdr:colOff>
+      <xdr:colOff>166686</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>295274</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
@@ -2903,8 +3063,8 @@
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>28576</xdr:rowOff>
     </xdr:to>
@@ -3197,10 +3357,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A11:D42"/>
+  <dimension ref="A11:J42"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:XFD1048576"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3219,35 +3379,35 @@
   <sheetData>
     <row r="11" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="2:4" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="7"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="5"/>
     </row>
     <row r="13" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="26"/>
-      <c r="D13" s="8">
+      <c r="C13" s="47"/>
+      <c r="D13" s="6">
         <v>15000</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="26"/>
+      <c r="C14" s="47"/>
       <c r="D14" s="3">
         <v>0.01</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="28"/>
+      <c r="C15" s="49"/>
       <c r="D15" s="4">
         <f>D13*30%</f>
         <v>4500</v>
@@ -3255,132 +3415,132 @@
     </row>
     <row r="16" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="9"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="7"/>
     </row>
     <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="30"/>
-      <c r="D18" s="12">
-        <v>4500</v>
+      <c r="C18" s="51"/>
+      <c r="D18" s="8">
+        <v>200</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="32"/>
-      <c r="D19" s="13">
+      <c r="C19" s="35"/>
+      <c r="D19" s="9">
         <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="31" t="s">
+      <c r="B20" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="32"/>
-      <c r="D20" s="14">
-        <v>1.0789999999999999E-2</v>
+      <c r="C20" s="35"/>
+      <c r="D20" s="10">
+        <v>0.01</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="33" t="s">
+      <c r="B21" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="34"/>
-      <c r="D21" s="15">
+      <c r="C21" s="37"/>
+      <c r="D21" s="11">
         <f>FV(taxa_mensal,qtd_anos*12,aporte*-1)</f>
-        <v>196687.6831035995</v>
+        <v>8615.3756718316199</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="35" t="s">
+      <c r="B22" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="36"/>
-      <c r="D22" s="16">
+      <c r="C22" s="39"/>
+      <c r="D22" s="12">
         <f>patrimonio*rendimento_carteira</f>
-        <v>1966.8768310359951</v>
+        <v>86.153756718316203</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="18"/>
-      <c r="D24" s="19" t="s">
+      <c r="C24" s="43"/>
+      <c r="D24" s="13" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="37" t="s">
+      <c r="B25" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="20">
+      <c r="C25" s="14">
         <f>FV($D$20,$A31*12,$D$18*-1)</f>
-        <v>122524.32283940348</v>
-      </c>
-      <c r="D25" s="21">
+        <v>5394.6929706382998</v>
+      </c>
+      <c r="D25" s="15">
         <f>C25*rendimento_carteira</f>
-        <v>1225.2432283940348</v>
+        <v>53.946929706383003</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="38" t="s">
+      <c r="B26" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="22">
+      <c r="C26" s="16">
         <f>FV($D$20,$A32*12,$D$18*-1)</f>
-        <v>376996.11299319437</v>
-      </c>
-      <c r="D26" s="21">
+        <v>16333.933971281826</v>
+      </c>
+      <c r="D26" s="15">
         <f>C26*rendimento_carteira</f>
-        <v>3769.961129931944</v>
+        <v>163.33933971281826</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="38" t="s">
+      <c r="B27" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="22">
+      <c r="C27" s="16">
         <f>FV($D$20,$A33*12,$D$18*-1)</f>
-        <v>1094778.956385775</v>
-      </c>
-      <c r="D27" s="21">
+        <v>46007.7378914734</v>
+      </c>
+      <c r="D27" s="15">
         <f>C27*rendimento_carteira</f>
-        <v>10947.78956385775</v>
+        <v>460.07737891473403</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="38" t="s">
+      <c r="B28" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="22">
+      <c r="C28" s="16">
         <f>FV($D$20,$A34*12,$D$18*-1)</f>
-        <v>5063392.8004368627</v>
-      </c>
-      <c r="D28" s="21">
+        <v>197851.0730774726</v>
+      </c>
+      <c r="D28" s="15">
         <f>C28*rendimento_carteira</f>
-        <v>50633.92800436863</v>
+        <v>1978.510730774726</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="39" t="s">
+      <c r="B29" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C29" s="23">
+      <c r="C29" s="17">
         <f>FV($D$20,$A35*12,$D$18*-1)</f>
-        <v>19449763.447521217</v>
-      </c>
-      <c r="D29" s="24">
+        <v>698992.82655370131</v>
+      </c>
+      <c r="D29" s="18">
         <f>C29*rendimento_carteira</f>
-        <v>194497.63447521217</v>
+        <v>6989.9282655370134</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -3392,26 +3552,26 @@
       <c r="A32" s="1">
         <v>5</v>
       </c>
-      <c r="B32" s="41" t="s">
+      <c r="B32" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C32" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="D32" s="40"/>
+      <c r="C32" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" s="22"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>10</v>
       </c>
-      <c r="B33" s="43" t="s">
+      <c r="B33" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="44">
+      <c r="C33" s="26">
         <f>aporte</f>
-        <v>4500</v>
-      </c>
-      <c r="D33" s="45"/>
+        <v>200</v>
+      </c>
+      <c r="D33" s="27"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
@@ -3422,114 +3582,114 @@
       <c r="A35" s="1">
         <v>30</v>
       </c>
-      <c r="B35" s="49" t="s">
+      <c r="B35" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="49" t="s">
+      <c r="C35" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="D35" s="49" t="s">
+      <c r="D35" s="31" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="47" t="s">
+      <c r="B36" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="C36" s="48">
+      <c r="C36" s="30">
         <f>VLOOKUP($C$32&amp;"-"&amp;B36,Planilha1!A5:D22,4,0)</f>
-        <v>0.32</v>
-      </c>
-      <c r="D36" s="42">
+        <v>0.3</v>
+      </c>
+      <c r="D36" s="24">
         <f>C36*$C$33</f>
-        <v>1440</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="47" t="s">
+      <c r="B37" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="C37" s="48">
+      <c r="C37" s="30">
         <f>VLOOKUP($C$32&amp;"-"&amp;B37,Planilha1!A6:D23,4,0)</f>
-        <v>0.35</v>
-      </c>
-      <c r="D37" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="D37" s="24">
         <f t="shared" ref="D37:D41" si="0">C37*$C$33</f>
-        <v>1575</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="47" t="s">
+      <c r="B38" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C38" s="48">
+      <c r="C38" s="30">
         <f>VLOOKUP($C$32&amp;"-"&amp;B38,Planilha1!A7:D24,4,0)</f>
-        <v>0.08</v>
-      </c>
-      <c r="D38" s="42">
+        <v>0.1</v>
+      </c>
+      <c r="D38" s="24">
         <f t="shared" si="0"/>
-        <v>360</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="47" t="s">
+      <c r="B39" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="C39" s="48">
+      <c r="C39" s="30">
         <f>VLOOKUP($C$32&amp;"-"&amp;B39,Planilha1!A8:D25,4,0)</f>
-        <v>0.05</v>
-      </c>
-      <c r="D39" s="42">
+        <v>0.1</v>
+      </c>
+      <c r="D39" s="24">
         <f t="shared" si="0"/>
-        <v>225</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B40" s="47" t="s">
+      <c r="B40" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="C40" s="48">
+      <c r="C40" s="30">
         <f>VLOOKUP($C$32&amp;"-"&amp;B40,Planilha1!A9:D26,4,0)</f>
-        <v>0.1</v>
-      </c>
-      <c r="D40" s="42">
+        <v>0</v>
+      </c>
+      <c r="D40" s="24">
         <f t="shared" si="0"/>
-        <v>450</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B41" s="47" t="s">
+      <c r="B41" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="C41" s="48">
+      <c r="C41" s="30">
         <f>VLOOKUP($C$32&amp;"-"&amp;B41,Planilha1!A10:D27,4,0)</f>
-        <v>0.1</v>
-      </c>
-      <c r="D41" s="42">
+        <v>0</v>
+      </c>
+      <c r="D41" s="24">
         <f t="shared" si="0"/>
-        <v>450</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B42" s="50"/>
-      <c r="C42" s="50"/>
-      <c r="D42" s="51">
+      <c r="B42" s="32"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="33">
         <f>SUM(D36:D41)</f>
-        <v>4500</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B18:C18"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
   </mergeCells>
   <dataValidations count="1">
@@ -3562,13 +3722,13 @@
       <c r="A4" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="47" t="s">
+      <c r="D4" s="29" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3577,13 +3737,13 @@
         <f>B5&amp;"-"&amp;C5</f>
         <v>Concervador-PAPEL</v>
       </c>
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="48">
+      <c r="D5" s="30">
         <v>0.3</v>
       </c>
       <c r="H5" t="s">
@@ -3599,13 +3759,13 @@
         <f t="shared" ref="A6:A22" si="0">B6&amp;"-"&amp;C6</f>
         <v>Concervador-TIJOLO</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="47" t="s">
+      <c r="C6" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="48">
+      <c r="D6" s="30">
         <v>0.5</v>
       </c>
     </row>
@@ -3614,13 +3774,13 @@
         <f t="shared" si="0"/>
         <v>Concervador-HÍBRIDOS</v>
       </c>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="47" t="s">
+      <c r="C7" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="48">
+      <c r="D7" s="30">
         <v>0.1</v>
       </c>
     </row>
@@ -3629,13 +3789,13 @@
         <f t="shared" si="0"/>
         <v>Concervador-FOFs</v>
       </c>
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="48">
+      <c r="D8" s="30">
         <v>0.1</v>
       </c>
     </row>
@@ -3644,13 +3804,13 @@
         <f t="shared" si="0"/>
         <v>Concervador-DESENVOLVIMENTO</v>
       </c>
-      <c r="B9" s="47" t="s">
+      <c r="B9" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="47" t="s">
+      <c r="C9" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="48">
+      <c r="D9" s="30">
         <v>0</v>
       </c>
     </row>
@@ -3659,13 +3819,13 @@
         <f t="shared" si="0"/>
         <v>Concervador-HOTELARIA</v>
       </c>
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="47" t="s">
+      <c r="C10" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="48">
+      <c r="D10" s="30">
         <v>0</v>
       </c>
     </row>
@@ -3677,10 +3837,10 @@
       <c r="B11" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="47" t="s">
+      <c r="C11" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="48">
+      <c r="D11" s="30">
         <v>0.32</v>
       </c>
     </row>
@@ -3692,10 +3852,10 @@
       <c r="B12" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="47" t="s">
+      <c r="C12" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="48">
+      <c r="D12" s="30">
         <v>0.35</v>
       </c>
     </row>
@@ -3707,10 +3867,10 @@
       <c r="B13" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="47" t="s">
+      <c r="C13" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="48">
+      <c r="D13" s="30">
         <v>0.08</v>
       </c>
     </row>
@@ -3722,10 +3882,10 @@
       <c r="B14" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="47" t="s">
+      <c r="C14" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="48">
+      <c r="D14" s="30">
         <v>0.05</v>
       </c>
     </row>
@@ -3737,10 +3897,10 @@
       <c r="B15" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="47" t="s">
+      <c r="C15" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="48">
+      <c r="D15" s="30">
         <v>0.1</v>
       </c>
     </row>
@@ -3752,10 +3912,10 @@
       <c r="B16" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="47" t="s">
+      <c r="C16" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="48">
+      <c r="D16" s="30">
         <v>0.1</v>
       </c>
     </row>
@@ -3767,10 +3927,10 @@
       <c r="B17" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="47" t="s">
+      <c r="C17" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="48">
+      <c r="D17" s="30">
         <v>0.5</v>
       </c>
     </row>
@@ -3782,10 +3942,10 @@
       <c r="B18" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="47" t="s">
+      <c r="C18" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="48">
+      <c r="D18" s="30">
         <v>0.1</v>
       </c>
     </row>
@@ -3797,10 +3957,10 @@
       <c r="B19" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="47" t="s">
+      <c r="C19" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="48">
+      <c r="D19" s="30">
         <v>0.05</v>
       </c>
     </row>
@@ -3812,10 +3972,10 @@
       <c r="B20" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="47" t="s">
+      <c r="C20" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="48">
+      <c r="D20" s="30">
         <v>0.05</v>
       </c>
     </row>
@@ -3827,10 +3987,10 @@
       <c r="B21" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="47" t="s">
+      <c r="C21" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="48">
+      <c r="D21" s="30">
         <v>0.2</v>
       </c>
     </row>
@@ -3842,10 +4002,10 @@
       <c r="B22" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="47" t="s">
+      <c r="C22" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="48">
+      <c r="D22" s="30">
         <v>0.1</v>
       </c>
     </row>
